--- a/natmiOut/OldD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H2">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I2">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J2">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.5931296135959</v>
+        <v>2.603012</v>
       </c>
       <c r="N2">
-        <v>2.5931296135959</v>
+        <v>5.206023999999999</v>
       </c>
       <c r="O2">
-        <v>0.0610181258447784</v>
+        <v>0.05633922884439784</v>
       </c>
       <c r="P2">
-        <v>0.0610181258447784</v>
+        <v>0.04298484318151238</v>
       </c>
       <c r="Q2">
-        <v>119.4511082393754</v>
+        <v>120.200928926078</v>
       </c>
       <c r="R2">
-        <v>119.4511082393754</v>
+        <v>480.803715704312</v>
       </c>
       <c r="S2">
-        <v>0.009268966082577042</v>
+        <v>0.00838040912496677</v>
       </c>
       <c r="T2">
-        <v>0.009268966082577042</v>
+        <v>0.004734993544932346</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H3">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I3">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J3">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.2627428340725</v>
+        <v>17.65890366666666</v>
       </c>
       <c r="N3">
-        <v>16.2627428340725</v>
+        <v>52.97671099999999</v>
       </c>
       <c r="O3">
-        <v>0.382673539968042</v>
+        <v>0.3822068491491816</v>
       </c>
       <c r="P3">
-        <v>0.382673539968042</v>
+        <v>0.437415504539991</v>
       </c>
       <c r="Q3">
-        <v>749.1344221117079</v>
+        <v>815.446346213332</v>
       </c>
       <c r="R3">
-        <v>749.1344221117079</v>
+        <v>4892.678077279993</v>
       </c>
       <c r="S3">
-        <v>0.05813007222946365</v>
+        <v>0.05685292170187555</v>
       </c>
       <c r="T3">
-        <v>0.05813007222946365</v>
+        <v>0.04818348601864808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H4">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I4">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J4">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.85713804149955</v>
+        <v>5.374669333333333</v>
       </c>
       <c r="N4">
-        <v>4.85713804149955</v>
+        <v>16.124008</v>
       </c>
       <c r="O4">
-        <v>0.1142918035056096</v>
+        <v>0.1163285937727655</v>
       </c>
       <c r="P4">
-        <v>0.1142918035056096</v>
+        <v>0.133131917051756</v>
       </c>
       <c r="Q4">
-        <v>223.741427689069</v>
+        <v>248.1894999090173</v>
       </c>
       <c r="R4">
-        <v>223.741427689069</v>
+        <v>1489.136999454104</v>
       </c>
       <c r="S4">
-        <v>0.0173615107895142</v>
+        <v>0.01730377267747737</v>
       </c>
       <c r="T4">
-        <v>0.0173615107895142</v>
+        <v>0.01466514057530997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H5">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I5">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J5">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.22248332307829</v>
+        <v>3.234415333333333</v>
       </c>
       <c r="N5">
-        <v>3.22248332307829</v>
+        <v>9.703246</v>
       </c>
       <c r="O5">
-        <v>0.07582725210084025</v>
+        <v>0.0700052345676839</v>
       </c>
       <c r="P5">
-        <v>0.07582725210084025</v>
+        <v>0.08011728483419157</v>
       </c>
       <c r="Q5">
-        <v>148.4419452874261</v>
+        <v>149.3576393806163</v>
       </c>
       <c r="R5">
-        <v>148.4419452874261</v>
+        <v>896.145836283698</v>
       </c>
       <c r="S5">
-        <v>0.0115185482695033</v>
+        <v>0.01041321506523946</v>
       </c>
       <c r="T5">
-        <v>0.0115185482695033</v>
+        <v>0.008825316052113976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H6">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I6">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J6">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.31478459049906</v>
+        <v>2.440071</v>
       </c>
       <c r="N6">
-        <v>2.31478459049906</v>
+        <v>7.320213</v>
       </c>
       <c r="O6">
-        <v>0.05446847573915222</v>
+        <v>0.05281255655585864</v>
       </c>
       <c r="P6">
-        <v>0.05446847573915222</v>
+        <v>0.06044117504265603</v>
       </c>
       <c r="Q6">
-        <v>106.6292958210882</v>
+        <v>112.6766994718365</v>
       </c>
       <c r="R6">
-        <v>106.6292958210882</v>
+        <v>676.0601968310191</v>
       </c>
       <c r="S6">
-        <v>0.008274040659331003</v>
+        <v>0.007855819824867038</v>
       </c>
       <c r="T6">
-        <v>0.008274040659331003</v>
+        <v>0.006657895027477753</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.064457253925</v>
+        <v>46.1776315</v>
       </c>
       <c r="H7">
-        <v>46.064457253925</v>
+        <v>92.35526300000001</v>
       </c>
       <c r="I7">
-        <v>0.1519051258007497</v>
+        <v>0.1487490918292909</v>
       </c>
       <c r="J7">
-        <v>0.1519051258007497</v>
+        <v>0.1101549568283373</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.247415154616</v>
+        <v>14.891407</v>
       </c>
       <c r="N7">
-        <v>13.247415154616</v>
+        <v>29.782814</v>
       </c>
       <c r="O7">
-        <v>0.3117208028415775</v>
+        <v>0.3223075371101125</v>
       </c>
       <c r="P7">
-        <v>0.3117208028415775</v>
+        <v>0.2459092753498931</v>
       </c>
       <c r="Q7">
-        <v>610.2349891148069</v>
+        <v>687.6499049625206</v>
       </c>
       <c r="R7">
-        <v>610.2349891148069</v>
+        <v>2750.599619850082</v>
       </c>
       <c r="S7">
-        <v>0.04735198777036054</v>
+        <v>0.04794295343486472</v>
       </c>
       <c r="T7">
-        <v>0.04735198777036054</v>
+        <v>0.02708812560985518</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H8">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I8">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J8">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.5931296135959</v>
+        <v>2.603012</v>
       </c>
       <c r="N8">
-        <v>2.5931296135959</v>
+        <v>5.206023999999999</v>
       </c>
       <c r="O8">
-        <v>0.0610181258447784</v>
+        <v>0.05633922884439784</v>
       </c>
       <c r="P8">
-        <v>0.0610181258447784</v>
+        <v>0.04298484318151238</v>
       </c>
       <c r="Q8">
-        <v>184.2215604037499</v>
+        <v>196.3620930462333</v>
       </c>
       <c r="R8">
-        <v>184.2215604037499</v>
+        <v>1178.1725582774</v>
       </c>
       <c r="S8">
-        <v>0.01429491463268741</v>
+        <v>0.01369036571567801</v>
       </c>
       <c r="T8">
-        <v>0.01429491463268741</v>
+        <v>0.01160273782428651</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H9">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I9">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J9">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.2627428340725</v>
+        <v>17.65890366666666</v>
       </c>
       <c r="N9">
-        <v>16.2627428340725</v>
+        <v>52.97671099999999</v>
       </c>
       <c r="O9">
-        <v>0.382673539968042</v>
+        <v>0.3822068491491816</v>
       </c>
       <c r="P9">
-        <v>0.382673539968042</v>
+        <v>0.437415504539991</v>
       </c>
       <c r="Q9">
-        <v>1155.340575970381</v>
+        <v>1332.125739292969</v>
       </c>
       <c r="R9">
-        <v>1155.340575970381</v>
+        <v>11989.13165363672</v>
       </c>
       <c r="S9">
-        <v>0.08965017378519784</v>
+        <v>0.09287581053586924</v>
       </c>
       <c r="T9">
-        <v>0.08965017378519784</v>
+        <v>0.1180699298593312</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H10">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I10">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J10">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.85713804149955</v>
+        <v>5.374669333333333</v>
       </c>
       <c r="N10">
-        <v>4.85713804149955</v>
+        <v>16.124008</v>
       </c>
       <c r="O10">
-        <v>0.1142918035056096</v>
+        <v>0.1163285937727655</v>
       </c>
       <c r="P10">
-        <v>0.1142918035056096</v>
+        <v>0.133131917051756</v>
       </c>
       <c r="Q10">
-        <v>345.0616368769371</v>
+        <v>405.4461983750889</v>
       </c>
       <c r="R10">
-        <v>345.0616368769371</v>
+        <v>3649.0157853758</v>
       </c>
       <c r="S10">
-        <v>0.02677551222213399</v>
+        <v>0.02826771016582815</v>
       </c>
       <c r="T10">
-        <v>0.02677551222213399</v>
+        <v>0.03593580004638822</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H11">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I11">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J11">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.22248332307829</v>
+        <v>3.234415333333333</v>
       </c>
       <c r="N11">
-        <v>3.22248332307829</v>
+        <v>9.703246</v>
       </c>
       <c r="O11">
-        <v>0.07582725210084025</v>
+        <v>0.0700052345676839</v>
       </c>
       <c r="P11">
-        <v>0.07582725210084025</v>
+        <v>0.08011728483419157</v>
       </c>
       <c r="Q11">
-        <v>228.9322149729826</v>
+        <v>243.9929453395389</v>
       </c>
       <c r="R11">
-        <v>228.9322149729826</v>
+        <v>2195.93650805585</v>
       </c>
       <c r="S11">
-        <v>0.0177642967660164</v>
+        <v>0.01701118888031632</v>
       </c>
       <c r="T11">
-        <v>0.0177642967660164</v>
+        <v>0.02162575880990113</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H12">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I12">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J12">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.31478459049906</v>
+        <v>2.440071</v>
       </c>
       <c r="N12">
-        <v>2.31478459049906</v>
+        <v>7.320213</v>
       </c>
       <c r="O12">
-        <v>0.05446847573915222</v>
+        <v>0.05281255655585864</v>
       </c>
       <c r="P12">
-        <v>0.05446847573915222</v>
+        <v>0.06044117504265603</v>
       </c>
       <c r="Q12">
-        <v>164.4473253571602</v>
+        <v>184.070395657575</v>
       </c>
       <c r="R12">
-        <v>164.4473253571602</v>
+        <v>1656.633560918175</v>
       </c>
       <c r="S12">
-        <v>0.01276050681799852</v>
+        <v>0.0128333885369027</v>
       </c>
       <c r="T12">
-        <v>0.01276050681799852</v>
+        <v>0.01631466014312147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.0421721451437</v>
+        <v>75.43649166666667</v>
       </c>
       <c r="H13">
-        <v>71.0421721451437</v>
+        <v>226.309475</v>
       </c>
       <c r="I13">
-        <v>0.2342732497070081</v>
+        <v>0.2429988126654902</v>
       </c>
       <c r="J13">
-        <v>0.2342732497070081</v>
+        <v>0.2699262569201787</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.247415154616</v>
+        <v>14.891407</v>
       </c>
       <c r="N13">
-        <v>13.247415154616</v>
+        <v>29.782814</v>
       </c>
       <c r="O13">
-        <v>0.3117208028415775</v>
+        <v>0.3223075371101125</v>
       </c>
       <c r="P13">
-        <v>0.3117208028415775</v>
+        <v>0.2459092753498931</v>
       </c>
       <c r="Q13">
-        <v>941.1251478924153</v>
+        <v>1123.355500060442</v>
       </c>
       <c r="R13">
-        <v>941.1251478924153</v>
+        <v>6740.13300036265</v>
       </c>
       <c r="S13">
-        <v>0.07302784548297392</v>
+        <v>0.07832034883089575</v>
       </c>
       <c r="T13">
-        <v>0.07302784548297392</v>
+        <v>0.06637737023715021</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H14">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I14">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J14">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.5931296135959</v>
+        <v>2.603012</v>
       </c>
       <c r="N14">
-        <v>2.5931296135959</v>
+        <v>5.206023999999999</v>
       </c>
       <c r="O14">
-        <v>0.0610181258447784</v>
+        <v>0.05633922884439784</v>
       </c>
       <c r="P14">
-        <v>0.0610181258447784</v>
+        <v>0.04298484318151238</v>
       </c>
       <c r="Q14">
-        <v>145.9795891654607</v>
+        <v>147.4815432660787</v>
       </c>
       <c r="R14">
-        <v>145.9795891654607</v>
+        <v>884.8892595964719</v>
       </c>
       <c r="S14">
-        <v>0.01132747850285044</v>
+        <v>0.01028241363851126</v>
       </c>
       <c r="T14">
-        <v>0.01132747850285044</v>
+        <v>0.008714460382302908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H15">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I15">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J15">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.2627428340725</v>
+        <v>17.65890366666666</v>
       </c>
       <c r="N15">
-        <v>16.2627428340725</v>
+        <v>52.97671099999999</v>
       </c>
       <c r="O15">
-        <v>0.382673539968042</v>
+        <v>0.3822068491491816</v>
       </c>
       <c r="P15">
-        <v>0.382673539968042</v>
+        <v>0.437415504539991</v>
       </c>
       <c r="Q15">
-        <v>915.5070788495494</v>
+        <v>1000.518770235026</v>
       </c>
       <c r="R15">
-        <v>915.5070788495494</v>
+        <v>9004.668932115233</v>
       </c>
       <c r="S15">
-        <v>0.07103997767195626</v>
+        <v>0.06975617165932767</v>
       </c>
       <c r="T15">
-        <v>0.07103997767195626</v>
+        <v>0.08867870167218028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H16">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I16">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J16">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.85713804149955</v>
+        <v>5.374669333333333</v>
       </c>
       <c r="N16">
-        <v>4.85713804149955</v>
+        <v>16.124008</v>
       </c>
       <c r="O16">
-        <v>0.1142918035056096</v>
+        <v>0.1163285937727655</v>
       </c>
       <c r="P16">
-        <v>0.1142918035056096</v>
+        <v>0.133131917051756</v>
       </c>
       <c r="Q16">
-        <v>273.4313827201266</v>
+        <v>304.5181996183138</v>
       </c>
       <c r="R16">
-        <v>273.4313827201266</v>
+        <v>2740.663796564824</v>
       </c>
       <c r="S16">
-        <v>0.02121726830081897</v>
+        <v>0.0212310097900259</v>
       </c>
       <c r="T16">
-        <v>0.02121726830081897</v>
+        <v>0.02699027682544974</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H17">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I17">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J17">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.22248332307829</v>
+        <v>3.234415333333333</v>
       </c>
       <c r="N17">
-        <v>3.22248332307829</v>
+        <v>9.703246</v>
       </c>
       <c r="O17">
-        <v>0.07582725210084025</v>
+        <v>0.0700052345676839</v>
       </c>
       <c r="P17">
-        <v>0.07582725210084025</v>
+        <v>0.08011728483419157</v>
       </c>
       <c r="Q17">
-        <v>181.4089003222593</v>
+        <v>183.2556150042598</v>
       </c>
       <c r="R17">
-        <v>181.4089003222593</v>
+        <v>1649.300535038338</v>
       </c>
       <c r="S17">
-        <v>0.01407666256888143</v>
+        <v>0.01277658202731167</v>
       </c>
       <c r="T17">
-        <v>0.01407666256888143</v>
+        <v>0.01624244391626684</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H18">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I18">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J18">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.31478459049906</v>
+        <v>2.440071</v>
       </c>
       <c r="N18">
-        <v>2.31478459049906</v>
+        <v>7.320213</v>
       </c>
       <c r="O18">
-        <v>0.05446847573915222</v>
+        <v>0.05281255655585864</v>
       </c>
       <c r="P18">
-        <v>0.05446847573915222</v>
+        <v>0.06044117504265603</v>
       </c>
       <c r="Q18">
-        <v>130.3102250484924</v>
+        <v>138.249626493771</v>
       </c>
       <c r="R18">
-        <v>130.3102250484924</v>
+        <v>1244.246638443939</v>
       </c>
       <c r="S18">
-        <v>0.01011159355480395</v>
+        <v>0.009638764373478039</v>
       </c>
       <c r="T18">
-        <v>0.01011159355480395</v>
+        <v>0.01225344066383842</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>56.2947522561475</v>
+        <v>56.65803433333334</v>
       </c>
       <c r="H19">
-        <v>56.2947522561475</v>
+        <v>169.974103</v>
       </c>
       <c r="I19">
-        <v>0.1856412065435436</v>
+        <v>0.182508952454959</v>
       </c>
       <c r="J19">
-        <v>0.1856412065435436</v>
+        <v>0.2027333296414343</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.247415154616</v>
+        <v>14.891407</v>
       </c>
       <c r="N19">
-        <v>13.247415154616</v>
+        <v>29.782814</v>
       </c>
       <c r="O19">
-        <v>0.3117208028415775</v>
+        <v>0.3223075371101125</v>
       </c>
       <c r="P19">
-        <v>0.3117208028415775</v>
+        <v>0.2459092753498931</v>
       </c>
       <c r="Q19">
-        <v>745.7599541634416</v>
+        <v>843.7178490776405</v>
       </c>
       <c r="R19">
-        <v>745.7599541634416</v>
+        <v>5062.307094465843</v>
       </c>
       <c r="S19">
-        <v>0.05786822594423251</v>
+        <v>0.05882401096630446</v>
       </c>
       <c r="T19">
-        <v>0.05786822594423251</v>
+        <v>0.0498540061813961</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.4204429588324</v>
+        <v>51.445151</v>
       </c>
       <c r="H20">
-        <v>50.4204429588324</v>
+        <v>154.335453</v>
       </c>
       <c r="I20">
-        <v>0.1662697052604121</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J20">
-        <v>0.1662697052604121</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.5931296135959</v>
+        <v>2.603012</v>
       </c>
       <c r="N20">
-        <v>2.5931296135959</v>
+        <v>5.206023999999999</v>
       </c>
       <c r="O20">
-        <v>0.0610181258447784</v>
+        <v>0.05633922884439784</v>
       </c>
       <c r="P20">
-        <v>0.0610181258447784</v>
+        <v>0.04298484318151238</v>
       </c>
       <c r="Q20">
-        <v>130.7467437671712</v>
+        <v>133.912345394812</v>
       </c>
       <c r="R20">
-        <v>130.7467437671712</v>
+        <v>803.4740723688719</v>
       </c>
       <c r="S20">
-        <v>0.01014546579975404</v>
+        <v>0.00933636912225984</v>
       </c>
       <c r="T20">
-        <v>0.01014546579975404</v>
+        <v>0.007912677090305178</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.4204429588324</v>
+        <v>51.445151</v>
       </c>
       <c r="H21">
-        <v>50.4204429588324</v>
+        <v>154.335453</v>
       </c>
       <c r="I21">
-        <v>0.1662697052604121</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J21">
-        <v>0.1662697052604121</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.2627428340725</v>
+        <v>17.65890366666666</v>
       </c>
       <c r="N21">
-        <v>16.2627428340725</v>
+        <v>52.97671099999999</v>
       </c>
       <c r="O21">
-        <v>0.382673539968042</v>
+        <v>0.3822068491491816</v>
       </c>
       <c r="P21">
-        <v>0.382673539968042</v>
+        <v>0.437415504539991</v>
       </c>
       <c r="Q21">
-        <v>819.9746974195129</v>
+        <v>908.4649656261203</v>
       </c>
       <c r="R21">
-        <v>819.9746974195129</v>
+        <v>8176.184690635082</v>
       </c>
       <c r="S21">
-        <v>0.06362701670144488</v>
+        <v>0.06333818012611073</v>
       </c>
       <c r="T21">
-        <v>0.06362701670144488</v>
+        <v>0.08051972243105646</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>50.4204429588324</v>
+        <v>51.445151</v>
       </c>
       <c r="H22">
-        <v>50.4204429588324</v>
+        <v>154.335453</v>
       </c>
       <c r="I22">
-        <v>0.1662697052604121</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J22">
-        <v>0.1662697052604121</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.85713804149955</v>
+        <v>5.374669333333333</v>
       </c>
       <c r="N22">
-        <v>4.85713804149955</v>
+        <v>16.124008</v>
       </c>
       <c r="O22">
-        <v>0.1142918035056096</v>
+        <v>0.1163285937727655</v>
       </c>
       <c r="P22">
-        <v>0.1142918035056096</v>
+        <v>0.133131917051756</v>
       </c>
       <c r="Q22">
-        <v>244.899051564603</v>
+        <v>276.5006754284027</v>
       </c>
       <c r="R22">
-        <v>244.899051564603</v>
+        <v>2488.506078855624</v>
       </c>
       <c r="S22">
-        <v>0.01900326448255865</v>
+        <v>0.01927762791953715</v>
       </c>
       <c r="T22">
-        <v>0.01900326448255865</v>
+        <v>0.02450700740248171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>50.4204429588324</v>
+        <v>51.445151</v>
       </c>
       <c r="H23">
-        <v>50.4204429588324</v>
+        <v>154.335453</v>
       </c>
       <c r="I23">
-        <v>0.1662697052604121</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J23">
-        <v>0.1662697052604121</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.22248332307829</v>
+        <v>3.234415333333333</v>
       </c>
       <c r="N23">
-        <v>3.22248332307829</v>
+        <v>9.703246</v>
       </c>
       <c r="O23">
-        <v>0.07582725210084025</v>
+        <v>0.0700052345676839</v>
       </c>
       <c r="P23">
-        <v>0.07582725210084025</v>
+        <v>0.08011728483419157</v>
       </c>
       <c r="Q23">
-        <v>162.4790365770576</v>
+        <v>166.3949852200487</v>
       </c>
       <c r="R23">
-        <v>162.4790365770576</v>
+        <v>1497.554866980438</v>
       </c>
       <c r="S23">
-        <v>0.01260777485751368</v>
+        <v>0.01160105886822539</v>
       </c>
       <c r="T23">
-        <v>0.01260777485751368</v>
+        <v>0.01474804040968604</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>50.4204429588324</v>
+        <v>51.445151</v>
       </c>
       <c r="H24">
-        <v>50.4204429588324</v>
+        <v>154.335453</v>
       </c>
       <c r="I24">
-        <v>0.1662697052604121</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J24">
-        <v>0.1662697052604121</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.31478459049906</v>
+        <v>2.440071</v>
       </c>
       <c r="N24">
-        <v>2.31478459049906</v>
+        <v>7.320213</v>
       </c>
       <c r="O24">
-        <v>0.05446847573915222</v>
+        <v>0.05281255655585864</v>
       </c>
       <c r="P24">
-        <v>0.05446847573915222</v>
+        <v>0.06044117504265603</v>
       </c>
       <c r="Q24">
-        <v>116.7124644072421</v>
+        <v>125.529821045721</v>
       </c>
       <c r="R24">
-        <v>116.7124644072421</v>
+        <v>1129.768389411489</v>
       </c>
       <c r="S24">
-        <v>0.009056457407132748</v>
+        <v>0.008751939499518902</v>
       </c>
       <c r="T24">
-        <v>0.009056457407132748</v>
+        <v>0.01112604968806408</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50.4204429588324</v>
+        <v>51.445151</v>
       </c>
       <c r="H25">
-        <v>50.4204429588324</v>
+        <v>154.335453</v>
       </c>
       <c r="I25">
-        <v>0.1662697052604121</v>
+        <v>0.1657170201609569</v>
       </c>
       <c r="J25">
-        <v>0.1662697052604121</v>
+        <v>0.1840806317913564</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.247415154616</v>
+        <v>14.891407</v>
       </c>
       <c r="N25">
-        <v>13.247415154616</v>
+        <v>29.782814</v>
       </c>
       <c r="O25">
-        <v>0.3117208028415775</v>
+        <v>0.3223075371101125</v>
       </c>
       <c r="P25">
-        <v>0.3117208028415775</v>
+        <v>0.2459092753498931</v>
       </c>
       <c r="Q25">
-        <v>667.940540155288</v>
+        <v>766.0906817174571</v>
       </c>
       <c r="R25">
-        <v>667.940540155288</v>
+        <v>4596.544090304742</v>
       </c>
       <c r="S25">
-        <v>0.05182972601200813</v>
+        <v>0.05341184462530487</v>
       </c>
       <c r="T25">
-        <v>0.05182972601200813</v>
+        <v>0.04526713476976294</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.1124788605917</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H26">
-        <v>33.1124788605917</v>
+        <v>101.979134</v>
       </c>
       <c r="I26">
-        <v>0.1091938463350561</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J26">
-        <v>0.1091938463350561</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.5931296135959</v>
+        <v>2.603012</v>
       </c>
       <c r="N26">
-        <v>2.5931296135959</v>
+        <v>5.206023999999999</v>
       </c>
       <c r="O26">
-        <v>0.0610181258447784</v>
+        <v>0.05633922884439784</v>
       </c>
       <c r="P26">
-        <v>0.0610181258447784</v>
+        <v>0.04298484318151238</v>
       </c>
       <c r="Q26">
-        <v>85.86494951296856</v>
+        <v>88.48430318386933</v>
       </c>
       <c r="R26">
-        <v>85.86494951296856</v>
+        <v>530.9058191032159</v>
       </c>
       <c r="S26">
-        <v>0.006662803857147849</v>
+        <v>0.006169125883165669</v>
       </c>
       <c r="T26">
-        <v>0.006662803857147849</v>
+        <v>0.005228403076582551</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>33.1124788605917</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H27">
-        <v>33.1124788605917</v>
+        <v>101.979134</v>
       </c>
       <c r="I27">
-        <v>0.1091938463350561</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J27">
-        <v>0.1091938463350561</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>16.2627428340725</v>
+        <v>17.65890366666666</v>
       </c>
       <c r="N27">
-        <v>16.2627428340725</v>
+        <v>52.97671099999999</v>
       </c>
       <c r="O27">
-        <v>0.382673539968042</v>
+        <v>0.3822068491491816</v>
       </c>
       <c r="P27">
-        <v>0.382673539968042</v>
+        <v>0.437415504539991</v>
       </c>
       <c r="Q27">
-        <v>538.4997283084648</v>
+        <v>600.2799011053637</v>
       </c>
       <c r="R27">
-        <v>538.4997283084648</v>
+        <v>5402.519109948274</v>
       </c>
       <c r="S27">
-        <v>0.04178559571976233</v>
+        <v>0.04185151650409697</v>
       </c>
       <c r="T27">
-        <v>0.04178559571976233</v>
+        <v>0.05320444138936445</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>33.1124788605917</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H28">
-        <v>33.1124788605917</v>
+        <v>101.979134</v>
       </c>
       <c r="I28">
-        <v>0.1091938463350561</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J28">
-        <v>0.1091938463350561</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.85713804149955</v>
+        <v>5.374669333333333</v>
       </c>
       <c r="N28">
-        <v>4.85713804149955</v>
+        <v>16.124008</v>
       </c>
       <c r="O28">
-        <v>0.1142918035056096</v>
+        <v>0.1163285937727655</v>
       </c>
       <c r="P28">
-        <v>0.1142918035056096</v>
+        <v>0.133131917051756</v>
       </c>
       <c r="Q28">
-        <v>160.8318807221296</v>
+        <v>182.7013747165636</v>
       </c>
       <c r="R28">
-        <v>160.8318807221296</v>
+        <v>1644.312372449072</v>
       </c>
       <c r="S28">
-        <v>0.01247996162934797</v>
+        <v>0.01273794039279244</v>
       </c>
       <c r="T28">
-        <v>0.01247996162934797</v>
+        <v>0.01619332009111784</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>33.1124788605917</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H29">
-        <v>33.1124788605917</v>
+        <v>101.979134</v>
       </c>
       <c r="I29">
-        <v>0.1091938463350561</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J29">
-        <v>0.1091938463350561</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.22248332307829</v>
+        <v>3.234415333333333</v>
       </c>
       <c r="N29">
-        <v>3.22248332307829</v>
+        <v>9.703246</v>
       </c>
       <c r="O29">
-        <v>0.07582725210084025</v>
+        <v>0.0700052345676839</v>
       </c>
       <c r="P29">
-        <v>0.07582725210084025</v>
+        <v>0.08011728483419157</v>
       </c>
       <c r="Q29">
-        <v>106.7044109140392</v>
+        <v>109.9476248965516</v>
       </c>
       <c r="R29">
-        <v>106.7044109140392</v>
+        <v>989.5286240689641</v>
       </c>
       <c r="S29">
-        <v>0.008279869313908712</v>
+        <v>0.007665548737299168</v>
       </c>
       <c r="T29">
-        <v>0.008279869313908712</v>
+        <v>0.009744957234011472</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>33.1124788605917</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H30">
-        <v>33.1124788605917</v>
+        <v>101.979134</v>
       </c>
       <c r="I30">
-        <v>0.1091938463350561</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J30">
-        <v>0.1091938463350561</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.31478459049906</v>
+        <v>2.440071</v>
       </c>
       <c r="N30">
-        <v>2.31478459049906</v>
+        <v>7.320213</v>
       </c>
       <c r="O30">
-        <v>0.05446847573915222</v>
+        <v>0.05281255655585864</v>
       </c>
       <c r="P30">
-        <v>0.05446847573915222</v>
+        <v>0.06044117504265603</v>
       </c>
       <c r="Q30">
-        <v>76.64825581972353</v>
+        <v>82.94544249283801</v>
       </c>
       <c r="R30">
-        <v>76.64825581972353</v>
+        <v>746.508982435542</v>
       </c>
       <c r="S30">
-        <v>0.005947622369965721</v>
+        <v>0.005782956499187072</v>
       </c>
       <c r="T30">
-        <v>0.005947622369965721</v>
+        <v>0.007351680316963501</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>33.1124788605917</v>
+        <v>33.99304466666667</v>
       </c>
       <c r="H31">
-        <v>33.1124788605917</v>
+        <v>101.979134</v>
       </c>
       <c r="I31">
-        <v>0.1091938463350561</v>
+        <v>0.1094996507709406</v>
       </c>
       <c r="J31">
-        <v>0.1091938463350561</v>
+        <v>0.1216336431542751</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.247415154616</v>
+        <v>14.891407</v>
       </c>
       <c r="N31">
-        <v>13.247415154616</v>
+        <v>29.782814</v>
       </c>
       <c r="O31">
-        <v>0.3117208028415775</v>
+        <v>0.3223075371101125</v>
       </c>
       <c r="P31">
-        <v>0.3117208028415775</v>
+        <v>0.2459092753498931</v>
       </c>
       <c r="Q31">
-        <v>438.6547542647044</v>
+        <v>506.2042633005128</v>
       </c>
       <c r="R31">
-        <v>438.6547542647044</v>
+        <v>3037.225579803076</v>
       </c>
       <c r="S31">
-        <v>0.03403799344492354</v>
+        <v>0.03529256275439931</v>
       </c>
       <c r="T31">
-        <v>0.03403799344492354</v>
+        <v>0.02991084104623527</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>46.3106134503266</v>
+        <v>46.729401</v>
       </c>
       <c r="H32">
-        <v>46.3106134503266</v>
+        <v>93.45880199999999</v>
       </c>
       <c r="I32">
-        <v>0.1527168663532303</v>
+        <v>0.1505264721183623</v>
       </c>
       <c r="J32">
-        <v>0.1527168663532303</v>
+        <v>0.1114711816644182</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.5931296135959</v>
+        <v>2.603012</v>
       </c>
       <c r="N32">
-        <v>2.5931296135959</v>
+        <v>5.206023999999999</v>
       </c>
       <c r="O32">
-        <v>0.0610181258447784</v>
+        <v>0.05633922884439784</v>
       </c>
       <c r="P32">
-        <v>0.0610181258447784</v>
+        <v>0.04298484318151238</v>
       </c>
       <c r="Q32">
-        <v>120.0894231618345</v>
+        <v>121.637191555812</v>
       </c>
       <c r="R32">
-        <v>120.0894231618345</v>
+        <v>486.5487662232479</v>
       </c>
       <c r="S32">
-        <v>0.009318496969761612</v>
+        <v>0.008480545359816283</v>
       </c>
       <c r="T32">
-        <v>0.009318496969761612</v>
+        <v>0.004791571263102896</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>46.3106134503266</v>
+        <v>46.729401</v>
       </c>
       <c r="H33">
-        <v>46.3106134503266</v>
+        <v>93.45880199999999</v>
       </c>
       <c r="I33">
-        <v>0.1527168663532303</v>
+        <v>0.1505264721183623</v>
       </c>
       <c r="J33">
-        <v>0.1527168663532303</v>
+        <v>0.1114711816644182</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>16.2627428340725</v>
+        <v>17.65890366666666</v>
       </c>
       <c r="N33">
-        <v>16.2627428340725</v>
+        <v>52.97671099999999</v>
       </c>
       <c r="O33">
-        <v>0.382673539968042</v>
+        <v>0.3822068491491816</v>
       </c>
       <c r="P33">
-        <v>0.382673539968042</v>
+        <v>0.437415504539991</v>
       </c>
       <c r="Q33">
-        <v>753.1375970308005</v>
+        <v>825.1899906600368</v>
       </c>
       <c r="R33">
-        <v>753.1375970308005</v>
+        <v>4951.139943960221</v>
       </c>
       <c r="S33">
-        <v>0.05844070386021701</v>
+        <v>0.05753224862190138</v>
       </c>
       <c r="T33">
-        <v>0.05844070386021701</v>
+        <v>0.04875922316941048</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>46.3106134503266</v>
+        <v>46.729401</v>
       </c>
       <c r="H34">
-        <v>46.3106134503266</v>
+        <v>93.45880199999999</v>
       </c>
       <c r="I34">
-        <v>0.1527168663532303</v>
+        <v>0.1505264721183623</v>
       </c>
       <c r="J34">
-        <v>0.1527168663532303</v>
+        <v>0.1114711816644182</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.85713804149955</v>
+        <v>5.374669333333333</v>
       </c>
       <c r="N34">
-        <v>4.85713804149955</v>
+        <v>16.124008</v>
       </c>
       <c r="O34">
-        <v>0.1142918035056096</v>
+        <v>0.1163285937727655</v>
       </c>
       <c r="P34">
-        <v>0.1142918035056096</v>
+        <v>0.133131917051756</v>
       </c>
       <c r="Q34">
-        <v>224.9370423147621</v>
+        <v>251.155078519736</v>
       </c>
       <c r="R34">
-        <v>224.9370423147621</v>
+        <v>1506.930471118416</v>
       </c>
       <c r="S34">
-        <v>0.01745428608123585</v>
+        <v>0.01751053282710448</v>
       </c>
       <c r="T34">
-        <v>0.01745428608123585</v>
+        <v>0.01484037211100855</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>46.3106134503266</v>
+        <v>46.729401</v>
       </c>
       <c r="H35">
-        <v>46.3106134503266</v>
+        <v>93.45880199999999</v>
       </c>
       <c r="I35">
-        <v>0.1527168663532303</v>
+        <v>0.1505264721183623</v>
       </c>
       <c r="J35">
-        <v>0.1527168663532303</v>
+        <v>0.1114711816644182</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.22248332307829</v>
+        <v>3.234415333333333</v>
       </c>
       <c r="N35">
-        <v>3.22248332307829</v>
+        <v>9.703246</v>
       </c>
       <c r="O35">
-        <v>0.07582725210084025</v>
+        <v>0.0700052345676839</v>
       </c>
       <c r="P35">
-        <v>0.07582725210084025</v>
+        <v>0.08011728483419157</v>
       </c>
       <c r="Q35">
-        <v>149.2351795252026</v>
+        <v>151.142291111882</v>
       </c>
       <c r="R35">
-        <v>149.2351795252026</v>
+        <v>906.8537466712919</v>
       </c>
       <c r="S35">
-        <v>0.01158010032501672</v>
+        <v>0.01053764098929188</v>
       </c>
       <c r="T35">
-        <v>0.01158010032501672</v>
+        <v>0.008930768412212107</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>46.3106134503266</v>
+        <v>46.729401</v>
       </c>
       <c r="H36">
-        <v>46.3106134503266</v>
+        <v>93.45880199999999</v>
       </c>
       <c r="I36">
-        <v>0.1527168663532303</v>
+        <v>0.1505264721183623</v>
       </c>
       <c r="J36">
-        <v>0.1527168663532303</v>
+        <v>0.1114711816644182</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.31478459049906</v>
+        <v>2.440071</v>
       </c>
       <c r="N36">
-        <v>2.31478459049906</v>
+        <v>7.320213</v>
       </c>
       <c r="O36">
-        <v>0.05446847573915222</v>
+        <v>0.05281255655585864</v>
       </c>
       <c r="P36">
-        <v>0.05446847573915222</v>
+        <v>0.06044117504265603</v>
       </c>
       <c r="Q36">
-        <v>107.1990943913745</v>
+        <v>114.023056227471</v>
       </c>
       <c r="R36">
-        <v>107.1990943913745</v>
+        <v>684.1383373648259</v>
       </c>
       <c r="S36">
-        <v>0.008318254929920277</v>
+        <v>0.007949687821904887</v>
       </c>
       <c r="T36">
-        <v>0.008318254929920277</v>
+        <v>0.006737449203190811</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>46.3106134503266</v>
+        <v>46.729401</v>
       </c>
       <c r="H37">
-        <v>46.3106134503266</v>
+        <v>93.45880199999999</v>
       </c>
       <c r="I37">
-        <v>0.1527168663532303</v>
+        <v>0.1505264721183623</v>
       </c>
       <c r="J37">
-        <v>0.1527168663532303</v>
+        <v>0.1114711816644182</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.247415154616</v>
+        <v>14.891407</v>
       </c>
       <c r="N37">
-        <v>13.247415154616</v>
+        <v>29.782814</v>
       </c>
       <c r="O37">
-        <v>0.3117208028415775</v>
+        <v>0.3223075371101125</v>
       </c>
       <c r="P37">
-        <v>0.3117208028415775</v>
+        <v>0.2459092753498931</v>
       </c>
       <c r="Q37">
-        <v>613.4959224414201</v>
+        <v>695.866529157207</v>
       </c>
       <c r="R37">
-        <v>613.4959224414201</v>
+        <v>2783.466116628828</v>
       </c>
       <c r="S37">
-        <v>0.04760502418707885</v>
+        <v>0.04851581649834337</v>
       </c>
       <c r="T37">
-        <v>0.04760502418707885</v>
+        <v>0.02741179750549337</v>
       </c>
     </row>
   </sheetData>
